--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96626.51824429633</v>
+        <v>96626.51824429631</v>
       </c>
     </row>
     <row r="7">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>33815.54581098</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33815.54581098</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33815.54581098</v>
+      </c>
+      <c r="E2" t="n">
         <v>33815.54581098001</v>
-      </c>
-      <c r="C2" t="n">
-        <v>33815.54581098001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33815.54581098001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>33815.54581098</v>
       </c>
       <c r="F2" t="n">
         <v>33815.54581098</v>
       </c>
       <c r="G2" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581097999</v>
       </c>
       <c r="H2" t="n">
         <v>33815.54581098</v>
@@ -26335,13 +26337,13 @@
         <v>33815.54581098</v>
       </c>
       <c r="J2" t="n">
-        <v>33815.54581098001</v>
+        <v>33815.54581098</v>
       </c>
       <c r="K2" t="n">
         <v>33815.54581098</v>
       </c>
       <c r="L2" t="n">
-        <v>33815.54581098001</v>
+        <v>33815.54581098</v>
       </c>
       <c r="M2" t="n">
         <v>33815.54581098</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11083.90279267999</v>
+        <v>-11083.90279268</v>
       </c>
       <c r="C6" t="n">
-        <v>-11083.90279267999</v>
+        <v>-11083.90279268</v>
       </c>
       <c r="D6" t="n">
-        <v>-11083.90279267999</v>
+        <v>-11083.90279268</v>
       </c>
       <c r="E6" t="n">
-        <v>22543.69720732</v>
+        <v>22543.69720732001</v>
       </c>
       <c r="F6" t="n">
         <v>22543.69720732</v>
       </c>
       <c r="G6" t="n">
-        <v>22543.69720732</v>
+        <v>22543.69720731999</v>
       </c>
       <c r="H6" t="n">
         <v>22543.69720732</v>
@@ -26543,13 +26545,13 @@
         <v>22543.69720732</v>
       </c>
       <c r="J6" t="n">
-        <v>22543.69720732001</v>
+        <v>22543.69720732</v>
       </c>
       <c r="K6" t="n">
         <v>22543.69720732</v>
       </c>
       <c r="L6" t="n">
-        <v>22543.69720732001</v>
+        <v>22543.69720732</v>
       </c>
       <c r="M6" t="n">
         <v>22543.69720732</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96626.51824429631</v>
+        <v>84682.28966322617</v>
       </c>
     </row>
     <row r="7">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581097999</v>
       </c>
       <c r="C2" t="n">
         <v>33815.54581098</v>
@@ -26322,19 +26322,19 @@
         <v>33815.54581098</v>
       </c>
       <c r="E2" t="n">
-        <v>33815.54581098001</v>
+        <v>33815.54581097999</v>
       </c>
       <c r="F2" t="n">
         <v>33815.54581098</v>
       </c>
       <c r="G2" t="n">
-        <v>33815.54581097999</v>
+        <v>33815.54581098</v>
       </c>
       <c r="H2" t="n">
         <v>33815.54581098</v>
       </c>
       <c r="I2" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="J2" t="n">
         <v>33815.54581098</v>
@@ -26346,13 +26346,13 @@
         <v>33815.54581098</v>
       </c>
       <c r="M2" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="N2" t="n">
         <v>33815.54581098</v>
       </c>
       <c r="O2" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581097999</v>
       </c>
       <c r="P2" t="n">
         <v>33815.54581098</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11083.90279268</v>
+        <v>-12511.49628682491</v>
       </c>
       <c r="C6" t="n">
-        <v>-11083.90279268</v>
+        <v>-12511.4962868249</v>
       </c>
       <c r="D6" t="n">
-        <v>-11083.90279268</v>
+        <v>-12511.4962868249</v>
       </c>
       <c r="E6" t="n">
-        <v>22543.69720732001</v>
+        <v>21116.10371317509</v>
       </c>
       <c r="F6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="G6" t="n">
-        <v>22543.69720731999</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="H6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="I6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.10371317511</v>
       </c>
       <c r="J6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="K6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="L6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="M6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.10371317511</v>
       </c>
       <c r="N6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
       <c r="O6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.10371317509</v>
       </c>
       <c r="P6" t="n">
-        <v>22543.69720732</v>
+        <v>21116.1037131751</v>
       </c>
     </row>
   </sheetData>
